--- a/Plan/Data_추출파일/007.세이브테이블.xlsx
+++ b/Plan/Data_추출파일/007.세이브테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1AC8B4B-4739-4FAE-9A3D-C5344A659857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4367C0C7-C853-4433-B1C4-520986FF0339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19552737-B008-4609-BFB3-CA3A3D91CC27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{866A3ACC-C5BD-436A-B391-E792325F85F1}"/>
   </bookViews>
   <sheets>
     <sheet name="007.세이브테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>cumulative_cycle_time</t>
+  </si>
+  <si>
+    <t>in_game_start_time</t>
   </si>
   <si>
     <t>data</t>
@@ -421,16 +424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520B753E-6D35-4523-8497-6D35B04D2BD2}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46589359-130C-428F-B0C9-C63985B8B670}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -454,6 +457,9 @@
       </c>
       <c r="H1" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Data_추출파일/007.세이브테이블.xlsx
+++ b/Plan/Data_추출파일/007.세이브테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4367C0C7-C853-4433-B1C4-520986FF0339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F4A06E-0E7C-4980-9B1F-2E8B5B2572D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{866A3ACC-C5BD-436A-B391-E792325F85F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94B9C1D2-FA68-4317-BC34-78E763144B66}"/>
   </bookViews>
   <sheets>
     <sheet name="007.세이브테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>in_game_start_time</t>
+  </si>
+  <si>
+    <t>bgm_sfx</t>
   </si>
   <si>
     <t>data</t>
@@ -424,16 +427,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46589359-130C-428F-B0C9-C63985B8B670}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D112CC7-9D71-4373-BCF0-D5A01D93D1A4}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -460,6 +463,9 @@
       </c>
       <c r="I1" t="s">
         <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Data_추출파일/007.세이브테이블.xlsx
+++ b/Plan/Data_추출파일/007.세이브테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F4A06E-0E7C-4980-9B1F-2E8B5B2572D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70F9FB80-CC7D-4656-8095-6A8EFE6DD09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94B9C1D2-FA68-4317-BC34-78E763144B66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D3DB407-5690-488A-8A7E-966AB4C473A0}"/>
   </bookViews>
   <sheets>
     <sheet name="007.세이브테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -60,7 +60,13 @@
     <t>in_game_start_time</t>
   </si>
   <si>
-    <t>bgm_sfx</t>
+    <t>bgm</t>
+  </si>
+  <si>
+    <t>sfx</t>
+  </si>
+  <si>
+    <t>star_tickets</t>
   </si>
   <si>
     <t>data</t>
@@ -427,16 +433,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D112CC7-9D71-4373-BCF0-D5A01D93D1A4}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6BE4D8-487A-46BD-AC1B-25B13044B129}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -466,6 +472,22 @@
       </c>
       <c r="J1" t="s">
         <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
